--- a/DynamicMarket.xlsx
+++ b/DynamicMarket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jkulinz-my.sharepoint.com/personal/k11771357_students_jku_at/Documents/Personal/DynamicMarket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_BB63D2749F0E83CBACEEA6C4CF4AAD3B15ED38A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F094A747-CB30-40F7-A536-399939728B5F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_BB63D2749F0E83CBACEEA6C4CF4AAD3B15ED38A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6633767D-91E9-48C2-AE69-B31C8FC6C2EB}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shops" sheetId="1" r:id="rId1"/>
@@ -572,13 +572,13 @@
     <t>dreamcatcher,oil of the kilmir,diamond water,power crystal,magic dagger,lucky shell,griever charm,rigged coin,mystery box,potion of unimaginable power,gemstone of [location],StrangeRoll</t>
   </si>
   <si>
-    <t>ornate vase,diamond tree bark,gemstone necklace,gemstone carving,spider preserved in amber,quartz fragment bracelet,topaz ring,handheld mirror,congo tourmaline necklace,ammonite fossil,spices,bag of diamond dust</t>
-  </si>
-  <si>
     <t>jade necklace</t>
   </si>
   <si>
     <t>WondrousRoll</t>
+  </si>
+  <si>
+    <t>ornate vase,diamond tree bark,jade necklace,gemstone carving,spider preserved in amber,quartz fragment bracelet,topaz ring,handheld mirror,congo tourmaline necklace,ammonite fossil,spices,bag of diamond dust</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
@@ -1208,7 +1208,7 @@
   </sheetPr>
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="44" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="13">
         <v>1</v>
@@ -3713,8 +3713,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>

--- a/DynamicMarket.xlsx
+++ b/DynamicMarket.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="48" documentId="11_BB63D2749F0E83CBACEEA6C4CF4AAD3B15ED38A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6633767D-91E9-48C2-AE69-B31C8FC6C2EB}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shops" sheetId="1" r:id="rId1"/>
@@ -916,8 +916,8 @@
   </sheetPr>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1208,7 @@
   </sheetPr>
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
